--- a/biology/Botanique/Kingidium_naviculare/Kingidium_naviculare.xlsx
+++ b/biology/Botanique/Kingidium_naviculare/Kingidium_naviculare.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Phalaenopsis taenialis est une espèce de plantes à fleurs de la famille des Orchidaceae (les orchidées) et du genre Phalaenopsis.
 Synonymes:
@@ -524,10 +536,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a des racines aplaties et verruqueuses, qui naissent de tiges discrètes portant quelques feuilles caduques de 1-3,5 cm de long et de 4-13 cm de long. Les feuilles sont généralement perdues pendant la floraison ou la saison sèche, mais il arrive fréquemment qu'une feuille persiste. La floraison a lieu en juin et 1 à 2 fleurs à large ouverture, rose pâle à rose pourpre, sont produites sur des racèmes axillaires de 6,5 à 19 cm de long. La colonne est largement dilatée au niveau du stigmate. Le chapeau de l'anthère est subglobuleux[1]. Le labelle possède un éperon sub-cylindrique[2], qui pointe vers le bas à angle droit par rapport à l'ovaire[3]. 
-Le nombre de chromosomes est 2n = 36, 38, 40, 57[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a des racines aplaties et verruqueuses, qui naissent de tiges discrètes portant quelques feuilles caduques de 1-3,5 cm de long et de 4-13 cm de long. Les feuilles sont généralement perdues pendant la floraison ou la saison sèche, mais il arrive fréquemment qu'une feuille persiste. La floraison a lieu en juin et 1 à 2 fleurs à large ouverture, rose pâle à rose pourpre, sont produites sur des racèmes axillaires de 6,5 à 19 cm de long. La colonne est largement dilatée au niveau du stigmate. Le chapeau de l'anthère est subglobuleux. Le labelle possède un éperon sub-cylindrique, qui pointe vers le bas à angle droit par rapport à l'ovaire. 
+Le nombre de chromosomes est 2n = 36, 38, 40, 57.
 </t>
         </is>
       </c>
@@ -556,7 +570,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Origines : Bhoutan, Chine (Yunnan)
 </t>
